--- a/ScoringSheet.xlsx
+++ b/ScoringSheet.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\Fantasy-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71368049-05FC-4572-A34F-39D20CA5964E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239C6005-B8E3-4878-87D0-E2C63A1540FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" xr2:uid="{CE5D2859-2397-48DE-AB69-7B5C7E9D43B2}"/>
+    <workbookView xWindow="11955" yWindow="3320" windowWidth="14400" windowHeight="7380" xr2:uid="{CE5D2859-2397-48DE-AB69-7B5C7E9D43B2}"/>
   </bookViews>
   <sheets>
     <sheet name="APS Apr. '18" sheetId="1" r:id="rId1"/>
+    <sheet name="ICHEP '18" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Table1">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
   <si>
     <t xml:space="preserve">Session: </t>
   </si>
@@ -42,24 +46,6 @@
     <t># of Feynmann</t>
   </si>
   <si>
-    <t># of graphs</t>
-  </si>
-  <si>
-    <t>data points/curves</t>
-  </si>
-  <si>
-    <t>photos</t>
-  </si>
-  <si>
-    <t>intimidating eq</t>
-  </si>
-  <si>
-    <t>largest dataset</t>
-  </si>
-  <si>
-    <t># of sig figs</t>
-  </si>
-  <si>
     <t>B07</t>
   </si>
   <si>
@@ -150,12 +136,6 @@
     <t>X10</t>
   </si>
   <si>
-    <t>highest energy/mass</t>
-  </si>
-  <si>
-    <t>lowest energy/mass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total: </t>
   </si>
   <si>
@@ -333,9 +313,6 @@
     <t>T2K</t>
   </si>
   <si>
-    <t>Astroparticle</t>
-  </si>
-  <si>
     <t>MeV Gamma-ray</t>
   </si>
   <si>
@@ -345,9 +322,6 @@
     <t>CERN Axion</t>
   </si>
   <si>
-    <t>ATLAS</t>
-  </si>
-  <si>
     <t>Standard Model</t>
   </si>
   <si>
@@ -363,13 +337,82 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>CMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exotica </t>
   </si>
   <si>
     <t>Overall:</t>
+  </si>
+  <si>
+    <t>Feynmann</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Data Points</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Intim. Eq</t>
+  </si>
+  <si>
+    <t>Lowest Energy/Mass</t>
+  </si>
+  <si>
+    <t>Highest Energy/Mass</t>
+  </si>
+  <si>
+    <t>Largest Dataset</t>
+  </si>
+  <si>
+    <t>Sig Figs</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>COSINE-100</t>
+  </si>
+  <si>
+    <t>Super-K</t>
+  </si>
+  <si>
+    <t>NOVA</t>
+  </si>
+  <si>
+    <t>MicroB</t>
+  </si>
+  <si>
+    <t>Borexino</t>
+  </si>
+  <si>
+    <t>MiniB</t>
+  </si>
+  <si>
+    <t># of Graphs</t>
+  </si>
+  <si>
+    <t>Intimidating Equation</t>
+  </si>
+  <si>
+    <t># of Sig Figs</t>
+  </si>
+  <si>
+    <t>Normalized:</t>
+  </si>
+  <si>
+    <t>LHC Atlas</t>
+  </si>
+  <si>
+    <t>LHC CMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized: </t>
   </si>
 </sst>
 </file>
@@ -413,10 +456,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04F6857-B5FF-4872-AED5-8414736087AD}">
-  <dimension ref="A1:AF250"/>
+  <dimension ref="A1:AE250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -742,92 +784,92 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -854,106 +896,107 @@
         <f>SUM(D2:L2)</f>
         <v>7</v>
       </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2">
         <f>SUMIF(C2:C138, "LUX-ZEPLIN", N2:N138)</f>
         <v>33</v>
       </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2">
+      <c r="S2">
+        <f>R2/6</f>
+        <v>5.5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2">
         <f>SUMIF(C2:C138, "Super-Kam", N2:N138)</f>
         <v>15</v>
       </c>
-      <c r="V2" t="s">
-        <v>52</v>
-      </c>
       <c r="W2">
+        <f>V2/3</f>
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2">
         <f>SUMIF(C2:C138, "PROSPECT", N2:N138)</f>
         <v>27</v>
       </c>
-      <c r="Y2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2">
-        <f>SUMIF(C2:C138, "KATRIN", N2:N138)</f>
-        <v>8</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2">
+      <c r="AA2">
+        <f>Z2/5</f>
+        <v>5.4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2">
         <f>SUMIF(C2:C138, "ATLAS Standard Model", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="AE2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF2">
-        <f>SUMIF(C2:C138, "CMS Standard Model", N2:N138)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="N3">
         <f t="shared" ref="N3:N67" si="0">SUM(D3:L3)</f>
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3">
         <f>SUMIF(C2:C138, "ArDM", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="S3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3">
         <f>SUMIF(C2:C138, "PAMELA", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3">
         <f>SUMIF(C2:C138, "NOvA", N2:N138)</f>
         <v>92</v>
       </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3">
-        <f>SUMIF(C2:C138, "IceCube", N2:N138)</f>
-        <v>82</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC3">
+      <c r="AA3">
+        <f>Z3/13</f>
+        <v>7.0769230769230766</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3">
         <f>SUMIF(C2:C138, "ATLAS Higgs", N2:N138)</f>
         <v>29</v>
       </c>
-      <c r="AE3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF3">
-        <f>SUMIF(C2:C138, "CMS Higgs", N2:N138)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AE3">
+        <f>AD3/4</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -977,99 +1020,106 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4">
         <f>SUMIF(C2:C138, "XMASS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="S4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4">
         <f>SUMIF(C2:C138, "MAGIC", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4">
         <f>SUMIF(C2:C138, "MicroBoone", N2:N138)</f>
         <v>25</v>
       </c>
-      <c r="AB4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC4">
+      <c r="AA4">
+        <f>Z4/5</f>
+        <v>5</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4">
         <f>SUMIF(C2:C138, "ATLAS SUSY", N2:N138)</f>
         <v>9</v>
       </c>
-      <c r="AE4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF4">
-        <f>SUMIF(C2:C138, "CMS SUSY", N2:N138)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AE4">
+        <f>AD4/1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="N5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5">
         <f>SUMIF(C2:C138, "XENON", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="S5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5">
         <f>SUMIF(C2:C138, "HESS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V5" t="s">
-        <v>55</v>
-      </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5">
         <f>SUMIF(C2:C138, "COHERENT", N2:N138)</f>
         <v>32</v>
       </c>
-      <c r="Y5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z5">
-        <f>SUMIF(C2:C138, "ADMX", N2:N138)</f>
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC5">
+      <c r="AA5">
+        <f>Z5/5</f>
+        <v>6.4</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5">
         <f>SUMIF(C2:C138, "ATLAS Exotica", N2:N138)</f>
         <v>8</v>
       </c>
-      <c r="AE5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF5">
-        <f>SUMIF(C2:C138, "CMS Exotica", N2:N138)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AE5">
+        <f>AD5/1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1093,55 +1143,55 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6">
         <f>SUMIF(C2:C138, "PICASSO", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="S6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6">
         <f>SUMIF(C2:C138, "HPS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V6" t="s">
-        <v>59</v>
-      </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6">
         <f>SUMIF(C2:C138, "JUNO", N2:N138)</f>
         <v>8</v>
       </c>
-      <c r="Y6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z6">
-        <f>SUMIF(C2:C138, "MeV Gamma-ray", N2:N138)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC6">
+      <c r="AA6">
+        <f>Z6/2</f>
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD6">
         <f>SUMIF(C2:C138, "ATLAS R&amp;D", N2:N138)</f>
         <v>41</v>
       </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF6">
-        <f>SUMIF(C2:C138, "CMS R&amp;D", N2:N138)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AE6">
+        <f>AD6/6</f>
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1171,41 +1221,45 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7">
         <f>SUMIF(C1:C137, "LUX", N1:N137)</f>
         <v>25</v>
       </c>
-      <c r="S7" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7">
+      <c r="S7">
+        <f>R7/6</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="U7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V7">
         <f>SUMIF(C2:C138, "GAPS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V7" t="s">
-        <v>51</v>
-      </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7">
         <f>SUMIF(C2:C138, "DUNE", N2:N138)</f>
         <v>61</v>
       </c>
-      <c r="Y7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z7">
-        <f>SUMIF(C2:C138, "ANTARES", N2:N138)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="B8" s="2">
+      <c r="AA7">
+        <f>Z7/11</f>
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1235,41 +1289,50 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8">
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8">
         <f>SUMIF(C2:C138, "PICO", N2:N138)</f>
         <v>15</v>
       </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8">
+      <c r="S8">
+        <f>R8/3</f>
+        <v>5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8">
         <f>SUMIF(C2:C138, "FGST-LAT", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V8" t="s">
-        <v>96</v>
-      </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8">
         <f>SUMIF(C2:C138, "MINOS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z8">
-        <f>SUMIF(C2:C138, "CERN Axion", N2:N138)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1299,64 +1362,105 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9">
         <f>SUMIF(C2:C138, "COSINE", N2:N138)</f>
         <v>15</v>
       </c>
-      <c r="S9" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9">
+      <c r="S9">
+        <f t="shared" ref="S9:S10" si="1">R9/3</f>
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9">
         <f>SUMIF(C2:C138, "CTA", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V9" t="s">
-        <v>97</v>
-      </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9">
         <f>SUMIF(C2:C138, "BOREXINO", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9">
+        <v>23</v>
+      </c>
+      <c r="AE9">
+        <f>AD9/3</f>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="N10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10">
         <f>SUMIF(C2:C138, "EDELWEISS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10">
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10">
         <f>SUMIF(C2:C138, "AMS", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V10" t="s">
-        <v>63</v>
-      </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10">
         <f>SUMIF(C2:C138, "MiniBoone", N2:N138)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AA10">
+        <f>Z10/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10">
+        <v>33</v>
+      </c>
+      <c r="AE10">
+        <f>AD10/4</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1383,27 +1487,53 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11">
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11">
         <f>SUMIF(C2:C138, "DarkSide", N2:N138)</f>
         <v>8</v>
       </c>
-      <c r="V11" t="s">
-        <v>98</v>
+      <c r="S11">
+        <f>R11/2</f>
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
       </c>
       <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z11">
         <f>SUMIF(C2:C138, "ICARUS", N2:N138)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD11">
+        <v>31</v>
+      </c>
+      <c r="AE11">
+        <f>AD11/4</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1430,27 +1560,53 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12">
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12">
         <f>SUMIF(C2:C138, "CRESST", N2:N138)</f>
         <v>0</v>
       </c>
-      <c r="V12" t="s">
-        <v>99</v>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12">
+        <v>82</v>
       </c>
       <c r="W12">
+        <f>V12/13</f>
+        <v>6.3076923076923075</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z12">
         <f>SUMIF(C2:C138, "T2K", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <v>67</v>
+      </c>
+      <c r="AE12">
+        <f>AD12/9</f>
+        <v>7.4444444444444446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1480,20 +1636,42 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13">
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13">
         <f>SUMIF(C2:C138, "DEAP", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD13">
+        <v>15</v>
+      </c>
+      <c r="AE13">
+        <f>AD13/2</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1520,20 +1698,33 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14">
+      <c r="Q14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14">
         <f>SUMIF(C2:C138, "SuperCDMS", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14">
+        <v>37</v>
+      </c>
+      <c r="W14">
+        <f>V14/6</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1566,20 +1757,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q15">
+      <c r="Q15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15">
         <f>SUMIF(C2:C138, "DARWIN", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1609,36 +1812,51 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16">
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16">
         <f>SUMIF(C2:C138, "CoGeNT", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
       <c r="N17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17">
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17">
         <f>SUMIF(C2:C138, "COUPP", N2:N138)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1663,12 +1881,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1702,12 +1920,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1738,12 +1956,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1771,12 +1989,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1801,12 +2019,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1834,12 +2052,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1867,21 +2085,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.75">
       <c r="N25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1909,12 +2127,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1945,12 +2163,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1981,12 +2199,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2014,12 +2232,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B30">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2050,12 +2268,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.75">
       <c r="B31">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2086,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.75">
       <c r="N32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2094,13 +2312,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2142,13 +2360,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2187,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2220,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2256,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2298,13 +2516,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2340,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2379,7 +2597,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2403,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2439,13 +2657,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2478,13 +2696,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2517,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2544,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2571,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2607,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2640,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2670,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2697,7 +2915,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2736,13 +2954,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2778,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2817,13 +3035,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2862,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2895,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2931,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2961,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2985,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3021,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3057,7 +3275,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3093,13 +3311,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A68" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3126,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N131" si="1">SUM(D68:L68)</f>
+        <f t="shared" ref="N68:N131" si="2">SUM(D68:L68)</f>
         <v>8</v>
       </c>
     </row>
@@ -3135,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3159,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3168,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3180,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3189,7 +3407,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3216,25 +3434,25 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3255,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3264,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3285,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3294,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3315,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3324,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3348,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3357,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3378,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3387,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3411,25 +3629,25 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3444,25 +3662,25 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3486,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3495,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3522,25 +3740,25 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3567,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -3576,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3600,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3609,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3636,25 +3854,25 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3681,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -3690,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3720,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -3729,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3756,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -3765,7 +3983,7 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3792,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -3801,7 +4019,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3825,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3834,7 +4052,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3855,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3864,7 +4082,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3891,25 +4109,25 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A97" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3933,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3942,7 +4160,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3969,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="N98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -3978,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4005,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4014,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4041,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4050,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4077,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4086,7 +4304,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -4113,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4122,7 +4340,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4149,25 +4367,25 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4191,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -4200,7 +4418,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4224,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -4233,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -4263,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -4272,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4284,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="N108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4293,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4320,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="N109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4329,7 +4547,7 @@
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4353,25 +4571,25 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A112" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4395,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -4404,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -4428,25 +4646,25 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A115" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B115">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -4476,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="N115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -4485,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4506,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -4515,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4545,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -4554,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4572,25 +4790,25 @@
         <v>1</v>
       </c>
       <c r="N118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A120" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -4602,25 +4820,25 @@
         <v>1</v>
       </c>
       <c r="N120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A122" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4647,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="N122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4656,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4680,25 +4898,25 @@
         <v>1</v>
       </c>
       <c r="N123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A125" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B125">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4722,25 +4940,25 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A127" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4764,25 +4982,25 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A129" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B129">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4809,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4818,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4845,25 +5063,25 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A132" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4890,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N138" si="2">SUM(D132:L132)</f>
+        <f t="shared" ref="N132:N138" si="3">SUM(D132:L132)</f>
         <v>8</v>
       </c>
     </row>
@@ -4899,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -4923,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -4932,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -4959,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -4968,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4989,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -4998,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -5025,25 +5243,25 @@
         <v>1</v>
       </c>
       <c r="N136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A138" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -5067,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5083,12 +5301,958 @@
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.75">
       <c r="L227" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.75">
       <c r="L250">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D50FBD-B290-438E-8B2C-F5A2D47D581D}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>862</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:K2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>834</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M59" si="0">SUM(C3:K3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>667</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>966</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>969</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>888</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>842</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>476</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>984</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>730</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>1053</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>543</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>851</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>1036</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>979</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>519</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>1032</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>462</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>1056</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>940</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>934</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>654</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>827</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>878</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>824</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>790</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>861</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>879</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>914</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>1074</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>529</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>254</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>304</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>305</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>624</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>302</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>625</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>317</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>881</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>841</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>776</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>777</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A58">
+        <v>1045</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A59">
+        <v>776</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
